--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N2">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O2">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P2">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q2">
-        <v>2.076517216563111</v>
+        <v>4.188357673196666</v>
       </c>
       <c r="R2">
-        <v>18.688654949068</v>
+        <v>37.69521905876999</v>
       </c>
       <c r="S2">
-        <v>0.001943095204226197</v>
+        <v>0.003593435078822256</v>
       </c>
       <c r="T2">
-        <v>0.001943095204226197</v>
+        <v>0.003593435078822255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.79181</v>
       </c>
       <c r="O3">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P3">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q3">
-        <v>37.85761745555111</v>
+        <v>66.28645118840333</v>
       </c>
       <c r="R3">
-        <v>340.71855709996</v>
+        <v>596.5780606956299</v>
       </c>
       <c r="S3">
-        <v>0.03542516013571207</v>
+        <v>0.05687099277012084</v>
       </c>
       <c r="T3">
-        <v>0.03542516013571208</v>
+        <v>0.05687099277012082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H4">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I4">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J4">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N4">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O4">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P4">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q4">
-        <v>16.34032622155556</v>
+        <v>32.88668901229833</v>
       </c>
       <c r="R4">
-        <v>147.062935994</v>
+        <v>295.980201110685</v>
       </c>
       <c r="S4">
-        <v>0.01529041476918146</v>
+        <v>0.02821539876581651</v>
       </c>
       <c r="T4">
-        <v>0.01529041476918146</v>
+        <v>0.02821539876581649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H5">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I5">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J5">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N5">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O5">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P5">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q5">
-        <v>0.4081428268955555</v>
+        <v>0.3809229382746667</v>
       </c>
       <c r="R5">
-        <v>3.67328544206</v>
+        <v>3.428306444472</v>
       </c>
       <c r="S5">
-        <v>0.0003819185139686385</v>
+        <v>0.0003268158919387395</v>
       </c>
       <c r="T5">
-        <v>0.0003819185139686385</v>
+        <v>0.0003268158919387394</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N6">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O6">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P6">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q6">
-        <v>25.20049604655333</v>
+        <v>29.02991907526666</v>
       </c>
       <c r="R6">
-        <v>226.80446441898</v>
+        <v>261.2692716774</v>
       </c>
       <c r="S6">
-        <v>0.02358129401557542</v>
+        <v>0.02490645204634994</v>
       </c>
       <c r="T6">
-        <v>0.02358129401557542</v>
+        <v>0.02490645204634993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>129.79181</v>
       </c>
       <c r="O7">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P7">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q7">
         <v>459.4379143167333</v>
@@ -883,10 +883,10 @@
         <v>4134.9412288506</v>
       </c>
       <c r="S7">
-        <v>0.4299177492138063</v>
+        <v>0.3941784457454481</v>
       </c>
       <c r="T7">
-        <v>0.4299177492138064</v>
+        <v>0.3941784457454481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.85826</v>
       </c>
       <c r="I8">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J8">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N8">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O8">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P8">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q8">
-        <v>198.3052791766667</v>
+        <v>227.9408768716333</v>
       </c>
       <c r="R8">
-        <v>1784.74751259</v>
+        <v>2051.4678918447</v>
       </c>
       <c r="S8">
-        <v>0.185563612893458</v>
+        <v>0.1955637046209762</v>
       </c>
       <c r="T8">
-        <v>0.185563612893458</v>
+        <v>0.1955637046209761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>31.85826</v>
       </c>
       <c r="I9">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J9">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N9">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O9">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P9">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q9">
-        <v>4.953198371566666</v>
+        <v>2.640214359626667</v>
       </c>
       <c r="R9">
-        <v>44.5787853441</v>
+        <v>23.76192923664</v>
       </c>
       <c r="S9">
-        <v>0.004634941586134294</v>
+        <v>0.002265193098528196</v>
       </c>
       <c r="T9">
-        <v>0.004634941586134295</v>
+        <v>0.002265193098528196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N10">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O10">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P10">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q10">
-        <v>10.91645286608555</v>
+        <v>13.40113843589889</v>
       </c>
       <c r="R10">
-        <v>98.24807579477</v>
+        <v>120.61024592309</v>
       </c>
       <c r="S10">
-        <v>0.01021504037725251</v>
+        <v>0.01149761427011993</v>
       </c>
       <c r="T10">
-        <v>0.01021504037725251</v>
+        <v>0.01149761427011992</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H11">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I11">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J11">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.79181</v>
       </c>
       <c r="O11">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P11">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q11">
-        <v>199.0211751096556</v>
+        <v>212.0912247979678</v>
       </c>
       <c r="R11">
-        <v>1791.1905759869</v>
+        <v>1908.82102318171</v>
       </c>
       <c r="S11">
-        <v>0.1862335105196468</v>
+        <v>0.1819653684251163</v>
       </c>
       <c r="T11">
-        <v>0.1862335105196468</v>
+        <v>0.1819653684251162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H12">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I12">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J12">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N12">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O12">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P12">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q12">
-        <v>85.90268339277779</v>
+        <v>105.2247937115161</v>
       </c>
       <c r="R12">
-        <v>773.124150535</v>
+        <v>947.023143403645</v>
       </c>
       <c r="S12">
-        <v>0.08038319682556545</v>
+        <v>0.0902784562322748</v>
       </c>
       <c r="T12">
-        <v>0.08038319682556545</v>
+        <v>0.09027845623227478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H13">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I13">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J13">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N13">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O13">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P13">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q13">
-        <v>2.145646516627778</v>
+        <v>1.218807329158222</v>
       </c>
       <c r="R13">
-        <v>19.31081864965</v>
+        <v>10.969265962424</v>
       </c>
       <c r="S13">
-        <v>0.002007782754300783</v>
+        <v>0.00104568552942617</v>
       </c>
       <c r="T13">
-        <v>0.002007782754300783</v>
+        <v>0.00104568552942617</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H14">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I14">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J14">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.373057666666667</v>
+        <v>2.733663333333333</v>
       </c>
       <c r="N14">
-        <v>7.119173</v>
+        <v>8.200989999999999</v>
       </c>
       <c r="O14">
-        <v>0.03663411841135516</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="P14">
-        <v>0.03663411841135517</v>
+        <v>0.04037266183309663</v>
       </c>
       <c r="Q14">
-        <v>0.9561223363228887</v>
+        <v>0.4372713194733333</v>
       </c>
       <c r="R14">
-        <v>8.605101026905999</v>
+        <v>3.935441875259999</v>
       </c>
       <c r="S14">
-        <v>0.000894688814301043</v>
+        <v>0.0003751604378045169</v>
       </c>
       <c r="T14">
-        <v>0.000894688814301043</v>
+        <v>0.0003751604378045168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H15">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I15">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J15">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>129.79181</v>
       </c>
       <c r="O15">
-        <v>0.6678877639810284</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="P15">
-        <v>0.6678877639810287</v>
+        <v>0.6389522306252696</v>
       </c>
       <c r="Q15">
-        <v>17.43135735186889</v>
+        <v>6.920412781326666</v>
       </c>
       <c r="R15">
-        <v>156.88221616682</v>
+        <v>62.28371503194</v>
       </c>
       <c r="S15">
-        <v>0.01631134411186331</v>
+        <v>0.005937423684584505</v>
       </c>
       <c r="T15">
-        <v>0.01631134411186331</v>
+        <v>0.005937423684584504</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H16">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I16">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J16">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.67383333333333</v>
+        <v>21.46453166666667</v>
       </c>
       <c r="N16">
-        <v>56.0215</v>
+        <v>64.393595</v>
       </c>
       <c r="O16">
-        <v>0.2882776222156328</v>
+        <v>0.3170032929137071</v>
       </c>
       <c r="P16">
-        <v>0.2882776222156329</v>
+        <v>0.317003292913707</v>
       </c>
       <c r="Q16">
-        <v>7.523824391444444</v>
+        <v>3.433423556336667</v>
       </c>
       <c r="R16">
-        <v>67.71441952299999</v>
+        <v>30.90081200703</v>
       </c>
       <c r="S16">
-        <v>0.007040397727427874</v>
+        <v>0.002945733294639642</v>
       </c>
       <c r="T16">
-        <v>0.007040397727427874</v>
+        <v>0.002945733294639641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H17">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I17">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J17">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4664283333333333</v>
+        <v>0.2486213333333333</v>
       </c>
       <c r="N17">
-        <v>1.399285</v>
+        <v>0.745864</v>
       </c>
       <c r="O17">
-        <v>0.007200495391983464</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="P17">
-        <v>0.007200495391983466</v>
+        <v>0.003671814627926724</v>
       </c>
       <c r="Q17">
-        <v>0.1879273959744444</v>
+        <v>0.03976897123733333</v>
       </c>
       <c r="R17">
-        <v>1.69134656377</v>
+        <v>0.357920741136</v>
       </c>
       <c r="S17">
-        <v>0.000175852537579749</v>
+        <v>3.412010803361889E-05</v>
       </c>
       <c r="T17">
-        <v>0.000175852537579749</v>
+        <v>3.412010803361889E-05</v>
       </c>
     </row>
   </sheetData>
